--- a/article_6_tanzania_sri_lanka_peru/transformations/templates/calibrated/united_republic_of_tanzania/model_input_variables_united_republic_of_tanzania_ce_calibrated.xlsx
+++ b/article_6_tanzania_sri_lanka_peru/transformations/templates/calibrated/united_republic_of_tanzania/model_input_variables_united_republic_of_tanzania_ce_calibrated.xlsx
@@ -1980,112 +1980,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -2105,112 +2105,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.0011760953240422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -2230,112 +2230,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.278209102397903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2605,112 +2605,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="K13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="L13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="M13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="N13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="O13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="P13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="Q13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="R13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="S13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="T13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="U13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="V13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="W13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="X13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="Y13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="Z13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AA13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AB13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AC13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AD13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AE13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AF13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AG13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AH13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AI13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AJ13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AK13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AL13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AM13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AN13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AO13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AP13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AQ13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AR13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
       <c r="AS13">
-        <v>0.461079413634086</v>
+        <v>0.209251949</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2730,112 +2730,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="K14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="L14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="M14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="N14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="O14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="P14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="Q14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="R14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="S14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="T14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="U14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="V14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="W14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="X14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="Y14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="Z14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AA14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AB14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AC14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AD14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AE14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AF14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AG14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AH14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AI14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AJ14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AK14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AL14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AM14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AN14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AO14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AP14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AQ14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AR14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
       <c r="AS14">
-        <v>0.227450783162807</v>
+        <v>0.501599903</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2855,112 +2855,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="K15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="L15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="M15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="N15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="O15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="P15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="Q15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="R15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="S15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="T15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="U15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="V15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="W15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="X15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="Y15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="Z15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AA15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AB15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AC15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AD15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AE15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AF15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AG15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AH15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AI15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AJ15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AK15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AL15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AM15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AN15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AO15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AP15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AQ15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AR15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
       <c r="AS15">
-        <v>0.0309085101571189</v>
+        <v>0.289148148</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -2980,112 +2980,112 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AL16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AR16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -3105,112 +3105,112 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AL17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AN17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AQ17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AR17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -3230,112 +3230,112 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:45">
@@ -3355,112 +3355,112 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AH19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AK19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AL19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AN19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AR19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.0001190467160995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:45">
@@ -3480,112 +3480,112 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AK20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AM20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AN20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AQ20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AR20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.0021428408897926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:45">
@@ -3605,112 +3605,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="K21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="L21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="M21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="N21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="O21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="P21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="Q21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="R21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="S21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="T21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="U21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="V21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="W21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="X21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="Y21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="Z21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AA21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AB21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AC21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AD21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AE21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AF21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AG21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AH21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AI21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AJ21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AK21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AL21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AM21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AN21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AO21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AP21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AQ21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AR21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AS21">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3730,112 +3730,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="K22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="L22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="M22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="N22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="O22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="P22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="Q22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="R22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="S22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="T22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="U22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="V22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="W22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="X22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="Y22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="Z22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AA22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AB22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AC22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AD22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AE22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AF22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AG22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AH22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AI22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AJ22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AK22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AL22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AM22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AN22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AO22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AP22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AQ22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AR22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AS22">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -3980,112 +3980,112 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="K24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="L24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="M24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="N24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="O24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="P24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="Q24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="R24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="S24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="T24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="U24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="V24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="W24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="X24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="Y24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="Z24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AA24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AB24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AC24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AD24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AE24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AF24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AG24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AH24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AI24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AJ24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AK24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AL24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AM24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AN24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AO24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AP24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AQ24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AR24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AS24">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -4105,112 +4105,112 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="K25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="L25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="M25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="N25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="O25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="P25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="Q25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="R25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="S25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="T25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="U25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="V25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="W25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="X25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="Y25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="Z25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AA25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AB25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AC25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AD25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AE25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AF25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AG25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AH25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AI25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AJ25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AK25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AL25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AM25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AN25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AO25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AP25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AQ25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AR25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AS25">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -4230,112 +4230,112 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AK26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AL26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AN26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AQ26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AR26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -4355,112 +4355,112 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AK27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AM27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AO27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AR27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.14080440314843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -4730,112 +4730,112 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AI30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AM30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AN30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AQ30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AR30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.0023809343219918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -4855,112 +4855,112 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="K31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="L31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="M31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="N31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="O31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="P31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="Q31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="R31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="S31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="T31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="U31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="V31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="W31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="X31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="Y31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="Z31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AA31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AB31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AC31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AD31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AE31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AF31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AG31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AH31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AI31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AJ31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AK31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AL31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AM31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AN31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AO31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AP31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AQ31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AR31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AS31">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -4980,112 +4980,112 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="K32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="L32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="M32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="N32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="O32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="P32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="Q32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="R32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="S32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="T32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="U32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="V32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="W32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="X32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="Y32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="Z32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AA32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AB32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AC32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AD32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AE32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AF32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AG32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AH32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AI32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AJ32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AK32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AL32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AM32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AN32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AO32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AP32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AQ32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AR32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
       <c r="AS32">
-        <v>0.233356892643728</v>
+        <v>0.138190955</v>
       </c>
     </row>
     <row r="33" spans="1:45">
@@ -5230,112 +5230,112 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="K34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="L34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="M34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="N34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="O34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="P34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="Q34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="R34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="S34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="T34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="U34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="V34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="W34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="X34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="Y34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="Z34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AA34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AB34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AC34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AD34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AE34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AF34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AG34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AH34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AI34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AJ34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AK34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AL34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AM34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AN34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AO34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AP34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AQ34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AR34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
       <c r="AS34">
-        <v>0.218010263201457</v>
+        <v>0.341708543</v>
       </c>
     </row>
     <row r="35" spans="1:45">
@@ -5355,112 +5355,112 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="K35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="L35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="M35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="N35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="O35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="P35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="Q35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="R35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="S35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="T35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="U35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="V35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="W35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="X35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="Y35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="Z35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AA35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AB35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AC35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AD35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AE35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AF35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AG35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AH35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AI35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AJ35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AK35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AL35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AM35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AN35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AO35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AP35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AQ35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AR35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
       <c r="AS35">
-        <v>0.0312862108922364</v>
+        <v>0.381909548</v>
       </c>
     </row>
     <row r="36" spans="1:45">
@@ -13666,112 +13666,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="K103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="L103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="M103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="N103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="O103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="P103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="Q103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="R103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="S103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="T103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="U103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="V103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="W103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="X103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="Y103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="Z103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AA103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AB103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AC103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AD103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AE103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AF103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AG103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AH103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AI103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AJ103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AK103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AL103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AM103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AN103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AO103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AP103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AQ103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AR103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AS103">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13788,112 +13788,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="K104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="L104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="M104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="N104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="O104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="P104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="Q104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="R104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="S104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="T104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="U104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="V104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="W104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="X104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="Y104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="Z104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AA104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AB104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AC104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AD104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AE104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AF104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AG104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AH104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AI104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AJ104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AK104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AL104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AM104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AN104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AO104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AP104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AQ104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AR104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AS104">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13913,112 +13913,112 @@
         <v>1</v>
       </c>
       <c r="J105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="K105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="L105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="M105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="N105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="O105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="P105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="Q105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="R105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="S105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="T105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="U105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="V105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="W105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="X105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="Y105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="Z105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AA105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AB105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AC105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AD105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AE105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AF105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AG105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AH105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AI105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AJ105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AK105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AL105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AM105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AN105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AO105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AP105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AQ105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AR105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AS105">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -14038,112 +14038,112 @@
         <v>1</v>
       </c>
       <c r="J106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="K106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="L106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="M106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="N106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="O106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="P106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="Q106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="R106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="S106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="T106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="U106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="V106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="W106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="X106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="Y106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="Z106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AA106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AB106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AC106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AD106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AE106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AF106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AG106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AH106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AI106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AJ106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AK106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AL106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AM106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AN106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AO106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AP106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AQ106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AR106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
       <c r="AS106">
-        <v>0.0060941689502857</v>
+        <v>0.01050995</v>
       </c>
     </row>
     <row r="107" spans="1:45">
@@ -15746,112 +15746,112 @@
         <v>1</v>
       </c>
       <c r="J120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="K120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="L120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="M120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="N120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="O120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="P120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Q120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="R120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="S120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="T120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="U120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="V120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="W120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="X120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Y120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Z120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AA120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AB120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AC120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AD120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AE120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AF120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AG120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AH120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AI120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AJ120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AK120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AL120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AM120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AN120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AO120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AP120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AQ120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AR120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AS120">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="121" spans="1:45">
@@ -15868,112 +15868,112 @@
         <v>1</v>
       </c>
       <c r="J121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="K121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="L121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="M121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="N121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="O121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="P121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="Q121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="R121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="S121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="T121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="U121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="V121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="W121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="X121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="Y121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="Z121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AA121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AB121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AC121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AD121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AE121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AF121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AG121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AH121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AI121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AJ121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AK121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AL121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AM121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AN121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AO121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AP121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AQ121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AR121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
       <c r="AS121">
-        <v>0.496181529421084</v>
+        <v>0.5043</v>
       </c>
     </row>
     <row r="122" spans="1:45">
@@ -15990,112 +15990,112 @@
         <v>1</v>
       </c>
       <c r="J122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="K122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="L122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="M122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="N122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="O122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="P122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="Q122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="R122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="S122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="T122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="U122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="V122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="W122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="X122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="Y122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="Z122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AA122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AB122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AC122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AD122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AE122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AF122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AG122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AH122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AI122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AJ122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AK122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AL122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AM122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AN122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AO122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AP122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AQ122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AR122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
       <c r="AS122">
-        <v>0.0405747767035785</v>
+        <v>0.0305</v>
       </c>
     </row>
     <row r="123" spans="1:45">
@@ -16112,112 +16112,112 @@
         <v>1</v>
       </c>
       <c r="J123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="K123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="L123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="M123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="N123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="O123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="P123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="Q123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="R123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="S123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="T123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="U123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="V123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="W123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="X123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="Y123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="Z123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AA123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AB123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AC123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AD123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AE123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AF123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AG123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AH123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AI123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AJ123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AK123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AL123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AM123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AN123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AO123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AP123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AQ123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AR123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
       <c r="AS123">
-        <v>0.0358924009561901</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="124" spans="1:45">
@@ -16234,112 +16234,112 @@
         <v>1</v>
       </c>
       <c r="J124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="K124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="L124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="M124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="N124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="O124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="P124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Q124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="R124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="S124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="T124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="U124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="V124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="W124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="X124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Y124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Z124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AA124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AB124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AC124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AD124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AE124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AF124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AG124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AH124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AI124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AJ124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AK124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AL124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AM124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AN124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AO124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AP124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AQ124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AR124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AS124">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="125" spans="1:45">
@@ -16356,112 +16356,112 @@
         <v>1</v>
       </c>
       <c r="J125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="K125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="L125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="M125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="N125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="O125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="P125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Q125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="R125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="S125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="T125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="U125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="V125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="W125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="X125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Y125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Z125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AA125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AB125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AC125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AD125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AE125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AF125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AG125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AH125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AI125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AJ125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AK125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AL125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AM125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AN125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AO125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AP125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AQ125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AR125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AS125">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="126" spans="1:45">
@@ -16478,112 +16478,112 @@
         <v>1</v>
       </c>
       <c r="J126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="K126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="L126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="M126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="N126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="O126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="P126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="Q126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="R126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="S126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="T126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="U126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="V126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="W126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="X126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="Y126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="Z126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AB126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AC126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AD126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AE126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AF126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AG126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AH126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AI126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AJ126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AK126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AL126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AM126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AN126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AO126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AP126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AQ126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AR126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="AS126">
-        <v>0.0998684387813778</v>
+        <v>0.07439999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:45">
@@ -16600,112 +16600,112 @@
         <v>1</v>
       </c>
       <c r="J127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="K127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="L127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="M127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="N127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="O127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="P127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="Q127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="R127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="S127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="T127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="U127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="V127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="W127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="X127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="Y127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="Z127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AA127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AB127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AC127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AD127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AE127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AF127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AG127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AH127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AI127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AJ127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AK127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AL127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AM127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AN127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AO127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AP127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AQ127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AR127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
       <c r="AS127">
-        <v>0.113187104156662</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="128" spans="1:45">
@@ -16722,112 +16722,112 @@
         <v>1</v>
       </c>
       <c r="J128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="K128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="L128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="M128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="N128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="O128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="P128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="Q128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="R128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="S128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="T128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="U128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="V128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="W128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="X128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="Y128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="Z128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AA128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AB128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AC128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AD128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AE128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AF128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AG128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AH128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AI128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AJ128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AK128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AL128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AM128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AN128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AO128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AP128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AQ128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AR128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
       <c r="AS128">
-        <v>0.0261977990962087</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="129" spans="1:45">
@@ -16844,112 +16844,112 @@
         <v>1</v>
       </c>
       <c r="J129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="K129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="L129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="M129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="N129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="O129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="P129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Q129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="R129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="S129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="T129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="U129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="V129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="W129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="X129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Y129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Z129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AA129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AB129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AC129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AD129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AE129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AF129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AG129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AH129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AI129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AJ129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AK129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AL129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AM129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AN129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AO129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AP129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AQ129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AR129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AS129">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="130" spans="1:45">
@@ -16966,112 +16966,112 @@
         <v>1</v>
       </c>
       <c r="J130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="K130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="L130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="M130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="N130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="O130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="P130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Q130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="R130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="S130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="T130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="U130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="V130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="W130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="X130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Y130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="Z130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AA130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AB130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AC130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AD130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AE130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AF130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AG130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AH130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AI130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AJ130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AK130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AL130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AM130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AN130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AO130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AP130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AQ130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AR130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
       <c r="AS130">
-        <v>0.0382869831802505</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="131" spans="1:45">
@@ -17088,112 +17088,112 @@
         <v>1</v>
       </c>
       <c r="J131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="K131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="L131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="M131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="N131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="O131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="P131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="Q131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="R131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="S131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="T131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="U131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="V131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="W131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="X131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="Y131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="Z131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AA131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AB131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AC131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AD131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AE131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AF131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AG131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AH131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AI131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AJ131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AK131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AL131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AM131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AN131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AO131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AP131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AQ131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AR131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
       <c r="AS131">
-        <v>0.0288374099190665</v>
+        <v>0.035214374</v>
       </c>
     </row>
     <row r="132" spans="1:45">
@@ -17210,112 +17210,112 @@
         <v>1</v>
       </c>
       <c r="J132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="K132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="L132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="M132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="N132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="O132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="P132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="Q132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="R132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="S132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="T132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="U132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="V132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="W132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="X132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="Y132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="Z132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AA132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AB132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AC132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AD132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AE132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AF132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AG132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AH132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AI132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AJ132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AK132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AL132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AM132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AN132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AO132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AP132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AQ132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AR132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
       <c r="AS132">
-        <v>0.128338397600206</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="133" spans="1:45">
@@ -17335,112 +17335,112 @@
         <v>1</v>
       </c>
       <c r="J133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="K133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="L133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="M133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="N133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="O133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="P133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="Q133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="R133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="S133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="T133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="U133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="V133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="W133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="X133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="Y133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="Z133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AA133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AB133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AC133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AD133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AE133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AF133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AG133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AH133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AI133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AJ133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AK133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AL133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AM133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AN133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AO133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AP133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AQ133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AR133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AS133">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
     </row>
     <row r="134" spans="1:45">
@@ -17460,112 +17460,112 @@
         <v>1</v>
       </c>
       <c r="J134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="K134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="L134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="M134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="N134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="O134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="P134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="Q134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="R134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="S134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="T134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="U134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="V134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="W134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="X134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="Y134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="Z134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AA134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AB134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AC134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AD134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AE134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AF134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AG134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AH134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AI134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AJ134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AK134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AL134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AM134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AN134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AO134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AP134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AQ134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AR134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
       <c r="AS134">
-        <v>0.402432418871817</v>
+        <v>0.2403</v>
       </c>
     </row>
     <row r="135" spans="1:45">
@@ -17710,112 +17710,112 @@
         <v>1</v>
       </c>
       <c r="J136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="K136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="L136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="M136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="N136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="O136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="P136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="Q136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="R136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="S136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="T136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="U136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="V136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="W136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="X136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="Y136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="Z136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AA136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AB136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AC136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AD136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AE136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AF136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AG136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AH136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AI136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AJ136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AK136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AL136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AM136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AN136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AO136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AP136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AQ136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AR136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
       <c r="AS136">
-        <v>0.0565</v>
+        <v>0.035711289</v>
       </c>
     </row>
     <row r="137" spans="1:45">
@@ -17835,112 +17835,112 @@
         <v>1</v>
       </c>
       <c r="J137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="K137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="L137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="M137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="N137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="O137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="P137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="Q137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="R137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="S137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="T137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="U137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="V137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="W137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="X137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="Y137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="Z137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AA137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AB137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AC137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AD137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AE137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AF137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AG137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AH137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AI137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AJ137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AK137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AL137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AM137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AN137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AO137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AP137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AQ137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AR137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
       <c r="AS137">
-        <v>0.1761644228194895</v>
+        <v>0.196972367</v>
       </c>
     </row>
     <row r="138" spans="1:45">
@@ -17960,112 +17960,112 @@
         <v>1</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="L138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="N138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="O138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="P138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="R138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="S138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="T138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="U138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="V138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="X138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AC138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AD138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AE138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AF138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AG138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AH138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AI138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AJ138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AK138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AL138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AM138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AN138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AO138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AP138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AQ138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AR138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
       <c r="AS138">
-        <v>0</v>
+        <v>0.17383869</v>
       </c>
     </row>
     <row r="139" spans="1:45">
@@ -18085,112 +18085,112 @@
         <v>1</v>
       </c>
       <c r="J139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="K139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="L139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="M139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="N139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="O139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="P139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="Q139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="R139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="S139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="T139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="U139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="V139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="W139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="X139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="Y139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="Z139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AA139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AB139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AC139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AD139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AE139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AF139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AG139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AH139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AI139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AJ139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AK139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AL139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AM139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AN139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AO139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AP139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AQ139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AR139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
       <c r="AS139">
-        <v>0.8238355771805104</v>
+        <v>0.6291889429999999</v>
       </c>
     </row>
     <row r="140" spans="1:45">
@@ -18210,112 +18210,112 @@
         <v>1</v>
       </c>
       <c r="J140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="K140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="L140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="M140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="N140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="O140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="P140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Q140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="R140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="S140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="T140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="U140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="V140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="W140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="X140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Y140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Z140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AA140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AB140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AC140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AD140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AE140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AF140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AG140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AH140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AI140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AJ140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AK140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AL140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AM140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AN140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AO140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AP140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AQ140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AR140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AS140">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="141" spans="1:45">
@@ -18335,112 +18335,112 @@
         <v>1</v>
       </c>
       <c r="J141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="K141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="L141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="M141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="N141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="O141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="P141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Q141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="R141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="S141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="T141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="U141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="V141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="W141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="X141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Y141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Z141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AA141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AB141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AC141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AD141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AE141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AF141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AG141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AH141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AI141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AJ141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AK141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AL141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AM141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AN141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AO141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AP141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AQ141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AR141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AS141">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="142" spans="1:45">
@@ -18460,112 +18460,112 @@
         <v>1</v>
       </c>
       <c r="J142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="K142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="L142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="M142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="N142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="O142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="P142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Q142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="R142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="S142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="T142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="U142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="V142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="W142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="X142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Y142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Z142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AA142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AB142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AC142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AD142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AE142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AF142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AG142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AH142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AI142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AJ142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AK142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AL142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AM142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AN142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AO142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AP142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AQ142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AR142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AS142">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="143" spans="1:45">
@@ -18585,112 +18585,112 @@
         <v>1</v>
       </c>
       <c r="J143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="K143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="L143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="M143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="N143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="O143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="P143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Q143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="R143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="S143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="T143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="U143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="V143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="W143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="X143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Y143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Z143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AA143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AB143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AC143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AD143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AE143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AF143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AG143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AH143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AI143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AJ143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AK143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AL143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AM143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AN143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AO143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AP143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AQ143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AR143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AS143">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="144" spans="1:45">
@@ -18710,112 +18710,112 @@
         <v>1</v>
       </c>
       <c r="J144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="K144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="L144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="M144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="N144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="O144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="P144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Q144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="R144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="S144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="T144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="U144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="V144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="W144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="X144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Y144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Z144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AA144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AB144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AC144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AD144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AE144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AF144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AG144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AH144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AI144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AJ144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AK144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AL144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AM144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AN144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AO144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AP144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AQ144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AR144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AS144">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="145" spans="1:45">
@@ -18835,112 +18835,112 @@
         <v>1</v>
       </c>
       <c r="J145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="K145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="L145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="M145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="N145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="O145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="P145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Q145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="R145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="S145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="T145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="U145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="V145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="W145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="X145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Y145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Z145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AA145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AB145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AC145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AD145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AE145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AF145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AG145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AH145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AI145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AJ145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AK145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AL145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AM145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AN145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AO145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AP145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AQ145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AR145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AS145">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="146" spans="1:45">
@@ -18960,112 +18960,112 @@
         <v>1</v>
       </c>
       <c r="J146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="K146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="L146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="M146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="N146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="O146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="P146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Q146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="R146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="S146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="T146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="U146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="V146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="W146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="X146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Y146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="Z146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AA146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AB146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AC146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AD146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AE146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AF146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AG146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AH146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AI146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AJ146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AK146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AL146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AM146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AN146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AO146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AP146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AQ146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AR146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
       <c r="AS146">
-        <v>0.0908789996576997</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="147" spans="1:45">
